--- a/KeywordFramework_Grid_MultiBrowser/src/test/java/dataEngine/DataEngineN1F.xlsx
+++ b/KeywordFramework_Grid_MultiBrowser/src/test/java/dataEngine/DataEngineN1F.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FEC06-82A5-4F76-A820-3E25859CFF94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A994CD88-67B2-46BA-B151-18BFBF1E8936}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -653,7 +653,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/KeywordFramework_Grid_MultiBrowser/src/test/java/dataEngine/DataEngineN1F.xlsx
+++ b/KeywordFramework_Grid_MultiBrowser/src/test/java/dataEngine/DataEngineN1F.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
